--- a/Documentatie/Asset Planning.xlsx
+++ b/Documentatie/Asset Planning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>C#</t>
   </si>
@@ -175,6 +175,24 @@
   </si>
   <si>
     <t>Wie</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Jesper</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Textures</t>
   </si>
 </sst>
 </file>
@@ -190,12 +208,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,14 +270,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -492,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,46 +587,82 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="E6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="H8" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="E9" s="2"/>
+      <c r="H9" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -565,205 +673,365 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="E13" s="2"/>
+      <c r="H13" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="E14" s="1"/>
+      <c r="H14" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" s="1"/>
+      <c r="H15" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="H16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="H17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+      <c r="H18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+      <c r="H19" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="H20" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+      <c r="H21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+      <c r="H24" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="H25" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="H26" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+      <c r="H27" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+      <c r="H28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+      <c r="H29" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="H30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="H31" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="H32" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E38" s="2"/>
+      <c r="H38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+      <c r="H39" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
+      <c r="H40" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+      <c r="H41" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+      <c r="H42" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E43" s="2"/>
+      <c r="H43" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E44" s="2"/>
+      <c r="H44" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+      <c r="H47" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+      <c r="H48" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E51" s="2"/>
+      <c r="H51" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E52" s="2"/>
+      <c r="H52" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E53" s="3"/>
+      <c r="H53" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E54" s="3"/>
+      <c r="H54" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E55" s="3"/>
+      <c r="H55" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E56" s="2"/>
+      <c r="H56" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="H57" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="H59" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Asset Planning.xlsx
+++ b/Documentatie/Asset Planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +875,7 @@
       <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="1"/>
       <c r="H38" s="5" t="s">
         <v>55</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="1"/>
       <c r="H39" s="5" t="s">
         <v>55</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="1"/>
       <c r="H40" s="5" t="s">
         <v>55</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="1"/>
       <c r="H41" s="5" t="s">
         <v>55</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="1"/>
       <c r="H42" s="5" t="s">
         <v>55</v>
       </c>
@@ -930,8 +930,8 @@
         <v>39</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="H44" s="5" t="s">
-        <v>55</v>
+      <c r="H44" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">

--- a/Documentatie/Asset Planning.xlsx
+++ b/Documentatie/Asset Planning.xlsx
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="1"/>
       <c r="H31" s="5" t="s">
         <v>55</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="1"/>
       <c r="H43" s="5" t="s">
         <v>55</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="A44" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="1"/>
       <c r="H44" s="6" t="s">
         <v>53</v>
       </c>
